--- a/CA/JIRA/PowerBI Input/ONE_A 7_3 Product Defect Numbers by Release and Component cf v1-0 10320.xlsx
+++ b/CA/JIRA/PowerBI Input/ONE_A 7_3 Product Defect Numbers by Release and Component cf v1-0 10320.xlsx
@@ -40,9 +40,6 @@
     <t>Watchlist Manager</t>
   </si>
   <si>
-    <t>Workflow Configuator</t>
-  </si>
-  <si>
     <t>Total Defects</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Base Platform</t>
+  </si>
+  <si>
+    <t>Workflow Configurator</t>
   </si>
 </sst>
 </file>
@@ -596,18 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,6 +609,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,22 +1043,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17">
         <v>3</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="16">
         <v>6</v>
@@ -1297,95 +1297,95 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="35">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31">
         <f>SUM(B3:B11)</f>
         <v>194</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
         <f t="shared" ref="D12" si="3">SUM(D3:D11)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36">
+      <c r="E12" s="33"/>
+      <c r="F12" s="32">
         <f t="shared" ref="F12" si="4">SUM(F3:F11)</f>
         <v>28</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="38">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34">
         <f>B12/($B$12+$D$12+$F$12)</f>
         <v>0.84347826086956523</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38">
+      <c r="C13" s="35"/>
+      <c r="D13" s="34">
         <f t="shared" ref="D13" si="5">D12/($B$12+$D$12+$F$12)</f>
         <v>3.4782608695652174E-2</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38">
+      <c r="E13" s="35"/>
+      <c r="F13" s="34">
         <f t="shared" ref="F13" si="6">F12/($B$12+$D$12+$F$12)</f>
         <v>0.12173913043478261</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="31">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36">
         <v>0.8</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="31">
+      <c r="C14" s="37"/>
+      <c r="D14" s="36">
         <v>0.05</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31">
+      <c r="E14" s="37"/>
+      <c r="F14" s="36">
         <v>0.15</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="33">
+        <v>11</v>
+      </c>
+      <c r="B15" s="38">
         <f>B13-B14</f>
         <v>4.3478260869565188E-2</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33">
+      <c r="C15" s="39"/>
+      <c r="D15" s="38">
         <f t="shared" ref="D15" si="7">D14-D13</f>
         <v>1.5217391304347828E-2</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33">
+      <c r="E15" s="39"/>
+      <c r="F15" s="38">
         <f t="shared" ref="F15" si="8">F14-F13</f>
         <v>2.8260869565217381E-2</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:G15">
     <cfRule type="expression" dxfId="1" priority="2">
